--- a/Rule/MainCovRule.xlsx
+++ b/Rule/MainCovRule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willis.wy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-11END\Rule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AssetCategory" sheetId="1" r:id="rId1"/>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2261,7 +2261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>

--- a/Rule/MainCovRule.xlsx
+++ b/Rule/MainCovRule.xlsx
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Rule/MainCovRule.xlsx
+++ b/Rule/MainCovRule.xlsx
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Rule/MainCovRule.xlsx
+++ b/Rule/MainCovRule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-11END\Rule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AssetCategory" sheetId="1" r:id="rId1"/>
@@ -1224,7 +1224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
@@ -3034,8 +3034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3265,10 +3265,10 @@
         <v>57</v>
       </c>
       <c r="K18" s="3">
-        <v>600000</v>
+        <v>650000</v>
       </c>
       <c r="L18" s="3">
-        <v>600000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -3301,10 +3301,10 @@
         <v>58</v>
       </c>
       <c r="K19" s="3">
-        <v>700000</v>
+        <v>750000</v>
       </c>
       <c r="L19" s="3">
-        <v>700000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -3337,10 +3337,10 @@
         <v>57</v>
       </c>
       <c r="K20" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="L20" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3373,10 +3373,10 @@
         <v>57</v>
       </c>
       <c r="K21" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="L21" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -3409,10 +3409,10 @@
         <v>58</v>
       </c>
       <c r="K22" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="L22" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3436,7 +3436,7 @@
         <v>57</v>
       </c>
       <c r="H23" s="3">
-        <v>800000</v>
+        <v>350000</v>
       </c>
       <c r="I23" s="3">
         <v>700000</v>
@@ -3445,10 +3445,10 @@
         <v>57</v>
       </c>
       <c r="K23" s="3">
-        <v>800000</v>
+        <v>340000</v>
       </c>
       <c r="L23" s="3">
-        <v>800000</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3483,10 +3483,10 @@
         <v>57</v>
       </c>
       <c r="K24" s="3">
-        <v>600000</v>
+        <v>650000</v>
       </c>
       <c r="L24" s="3">
-        <v>600000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3519,10 +3519,10 @@
         <v>58</v>
       </c>
       <c r="K25" s="3">
-        <v>700000</v>
+        <v>750000</v>
       </c>
       <c r="L25" s="3">
-        <v>700000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3555,10 +3555,10 @@
         <v>57</v>
       </c>
       <c r="K26" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="L26" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3591,10 +3591,10 @@
         <v>57</v>
       </c>
       <c r="K27" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="L27" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3627,10 +3627,10 @@
         <v>58</v>
       </c>
       <c r="K28" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="L28" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3663,10 +3663,10 @@
         <v>57</v>
       </c>
       <c r="K29" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="L29" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3701,10 +3701,10 @@
         <v>57</v>
       </c>
       <c r="K30" s="3">
-        <v>600000</v>
+        <v>650000</v>
       </c>
       <c r="L30" s="3">
-        <v>600000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3737,10 +3737,10 @@
         <v>58</v>
       </c>
       <c r="K31" s="3">
-        <v>700000</v>
+        <v>750000</v>
       </c>
       <c r="L31" s="3">
-        <v>700000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3773,10 +3773,10 @@
         <v>57</v>
       </c>
       <c r="K32" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="L32" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3809,10 +3809,10 @@
         <v>57</v>
       </c>
       <c r="K33" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="L33" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3845,10 +3845,10 @@
         <v>58</v>
       </c>
       <c r="K34" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="L34" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3881,10 +3881,10 @@
         <v>57</v>
       </c>
       <c r="K35" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="L35" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3919,7 +3919,7 @@
         <v>57</v>
       </c>
       <c r="K36" s="3">
-        <v>600000</v>
+        <v>650000</v>
       </c>
       <c r="L36" s="3">
         <v>600000</v>
@@ -3955,7 +3955,7 @@
         <v>58</v>
       </c>
       <c r="K37" s="3">
-        <v>700000</v>
+        <v>750000</v>
       </c>
       <c r="L37" s="3">
         <v>700000</v>
@@ -3991,7 +3991,7 @@
         <v>57</v>
       </c>
       <c r="K38" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="L38" s="3">
         <v>800000</v>
@@ -4027,7 +4027,7 @@
         <v>57</v>
       </c>
       <c r="K39" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="L39" s="3">
         <v>800000</v>
@@ -4063,7 +4063,7 @@
         <v>58</v>
       </c>
       <c r="K40" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="L40" s="3">
         <v>800000</v>
@@ -4090,19 +4090,19 @@
         <v>57</v>
       </c>
       <c r="H41" s="3">
-        <v>800000</v>
+        <v>100000</v>
       </c>
       <c r="I41" s="3">
-        <v>700000</v>
+        <v>200000</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K41" s="3">
-        <v>800000</v>
+        <v>300000</v>
       </c>
       <c r="L41" s="3">
-        <v>800000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -4137,7 +4137,7 @@
         <v>57</v>
       </c>
       <c r="K42" s="3">
-        <v>600000</v>
+        <v>650000</v>
       </c>
       <c r="L42" s="3">
         <v>600000</v>
@@ -4173,7 +4173,7 @@
         <v>58</v>
       </c>
       <c r="K43" s="3">
-        <v>700000</v>
+        <v>750000</v>
       </c>
       <c r="L43" s="3">
         <v>700000</v>
@@ -4209,7 +4209,7 @@
         <v>57</v>
       </c>
       <c r="K44" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="L44" s="3">
         <v>800000</v>
@@ -4245,7 +4245,7 @@
         <v>57</v>
       </c>
       <c r="K45" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="L45" s="3">
         <v>800000</v>
@@ -4281,7 +4281,7 @@
         <v>58</v>
       </c>
       <c r="K46" s="3">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="L46" s="3">
         <v>800000</v>
@@ -4308,19 +4308,19 @@
         <v>57</v>
       </c>
       <c r="H47" s="3">
-        <v>800000</v>
+        <v>200000</v>
       </c>
       <c r="I47" s="3">
-        <v>700000</v>
+        <v>400000</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K47" s="3">
-        <v>800000</v>
+        <v>600000</v>
       </c>
       <c r="L47" s="3">
-        <v>800000</v>
+        <v>810000</v>
       </c>
     </row>
     <row r="48" spans="1:12">

--- a/Rule/MainCovRule.xlsx
+++ b/Rule/MainCovRule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ardhi.wa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B9FC19-EAEC-4098-888A-91373FF16489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AssetCategory" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="66">
   <si>
     <t>DATA OBJECTS</t>
   </si>
@@ -218,12 +219,15 @@
   </si>
   <si>
     <t>TFT_RB</t>
+  </si>
+  <si>
+    <t>A0001-003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -571,11 +575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52:K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1195,25 +1199,102 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="5"/>
+      <c r="A58" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="5"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="5"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="5"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="5"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="5"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="5"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3"/>
+      <c r="B65" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1221,11 +1302,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2252,17 +2333,199 @@
         <v>40</v>
       </c>
     </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1</v>
+      </c>
+      <c r="E74" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="3"/>
+      <c r="B75" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D75" s="3">
+        <v>2</v>
+      </c>
+      <c r="E75" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="3"/>
+      <c r="B76" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76" s="3">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="3"/>
+      <c r="B77" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="6">
+        <v>4</v>
+      </c>
+      <c r="E77" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="3"/>
+      <c r="B78" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="6">
+        <v>5</v>
+      </c>
+      <c r="E78" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="3"/>
+      <c r="B79" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="6">
+        <v>6</v>
+      </c>
+      <c r="E79" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="3"/>
+      <c r="B80" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D80" s="3">
+        <v>1</v>
+      </c>
+      <c r="E80" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="3"/>
+      <c r="B81" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81" s="3">
+        <v>2</v>
+      </c>
+      <c r="E81" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="3"/>
+      <c r="B82" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" s="3">
+        <v>3</v>
+      </c>
+      <c r="E82" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="3"/>
+      <c r="B83" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" s="6">
+        <v>4</v>
+      </c>
+      <c r="E83" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="3"/>
+      <c r="B84" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D84" s="6">
+        <v>5</v>
+      </c>
+      <c r="E84" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="3"/>
+      <c r="B85" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85" s="6">
+        <v>6</v>
+      </c>
+      <c r="E85" s="6">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3024,6 +3287,143 @@
         <v>48</v>
       </c>
     </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="3"/>
+      <c r="B57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="3"/>
+      <c r="B58" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="3"/>
+      <c r="B59" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="3"/>
+      <c r="B60" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="3"/>
+      <c r="B61" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="3"/>
+      <c r="B62" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="3"/>
+      <c r="B63" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="3"/>
+      <c r="B64" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3031,11 +3431,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3265,10 +3665,10 @@
         <v>57</v>
       </c>
       <c r="K18" s="3">
-        <v>650000</v>
+        <v>600000</v>
       </c>
       <c r="L18" s="3">
-        <v>650000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -3301,10 +3701,10 @@
         <v>58</v>
       </c>
       <c r="K19" s="3">
-        <v>750000</v>
+        <v>700000</v>
       </c>
       <c r="L19" s="3">
-        <v>750000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -3337,10 +3737,10 @@
         <v>57</v>
       </c>
       <c r="K20" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="L20" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3373,10 +3773,10 @@
         <v>57</v>
       </c>
       <c r="K21" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="L21" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -3409,10 +3809,10 @@
         <v>58</v>
       </c>
       <c r="K22" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="L22" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3436,7 +3836,7 @@
         <v>57</v>
       </c>
       <c r="H23" s="3">
-        <v>350000</v>
+        <v>800000</v>
       </c>
       <c r="I23" s="3">
         <v>700000</v>
@@ -3445,10 +3845,10 @@
         <v>57</v>
       </c>
       <c r="K23" s="3">
-        <v>340000</v>
+        <v>800000</v>
       </c>
       <c r="L23" s="3">
-        <v>680000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3483,10 +3883,10 @@
         <v>57</v>
       </c>
       <c r="K24" s="3">
-        <v>650000</v>
+        <v>600000</v>
       </c>
       <c r="L24" s="3">
-        <v>650000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3519,10 +3919,10 @@
         <v>58</v>
       </c>
       <c r="K25" s="3">
-        <v>750000</v>
+        <v>700000</v>
       </c>
       <c r="L25" s="3">
-        <v>750000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3555,10 +3955,10 @@
         <v>57</v>
       </c>
       <c r="K26" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="L26" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3591,10 +3991,10 @@
         <v>57</v>
       </c>
       <c r="K27" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="L27" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3627,10 +4027,10 @@
         <v>58</v>
       </c>
       <c r="K28" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="L28" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3663,10 +4063,10 @@
         <v>57</v>
       </c>
       <c r="K29" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="L29" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3701,10 +4101,10 @@
         <v>57</v>
       </c>
       <c r="K30" s="3">
-        <v>650000</v>
+        <v>600000</v>
       </c>
       <c r="L30" s="3">
-        <v>650000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3737,10 +4137,10 @@
         <v>58</v>
       </c>
       <c r="K31" s="3">
-        <v>750000</v>
+        <v>700000</v>
       </c>
       <c r="L31" s="3">
-        <v>750000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3773,10 +4173,10 @@
         <v>57</v>
       </c>
       <c r="K32" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="L32" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3809,10 +4209,10 @@
         <v>57</v>
       </c>
       <c r="K33" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="L33" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3845,10 +4245,10 @@
         <v>58</v>
       </c>
       <c r="K34" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="L34" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3881,10 +4281,10 @@
         <v>57</v>
       </c>
       <c r="K35" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="L35" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3919,7 +4319,7 @@
         <v>57</v>
       </c>
       <c r="K36" s="3">
-        <v>650000</v>
+        <v>600000</v>
       </c>
       <c r="L36" s="3">
         <v>600000</v>
@@ -3955,7 +4355,7 @@
         <v>58</v>
       </c>
       <c r="K37" s="3">
-        <v>750000</v>
+        <v>700000</v>
       </c>
       <c r="L37" s="3">
         <v>700000</v>
@@ -3991,7 +4391,7 @@
         <v>57</v>
       </c>
       <c r="K38" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="L38" s="3">
         <v>800000</v>
@@ -4027,7 +4427,7 @@
         <v>57</v>
       </c>
       <c r="K39" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="L39" s="3">
         <v>800000</v>
@@ -4063,7 +4463,7 @@
         <v>58</v>
       </c>
       <c r="K40" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="L40" s="3">
         <v>800000</v>
@@ -4090,19 +4490,19 @@
         <v>57</v>
       </c>
       <c r="H41" s="3">
-        <v>100000</v>
+        <v>800000</v>
       </c>
       <c r="I41" s="3">
-        <v>200000</v>
+        <v>700000</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K41" s="3">
-        <v>300000</v>
+        <v>800000</v>
       </c>
       <c r="L41" s="3">
-        <v>400000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -4137,7 +4537,7 @@
         <v>57</v>
       </c>
       <c r="K42" s="3">
-        <v>650000</v>
+        <v>600000</v>
       </c>
       <c r="L42" s="3">
         <v>600000</v>
@@ -4173,7 +4573,7 @@
         <v>58</v>
       </c>
       <c r="K43" s="3">
-        <v>750000</v>
+        <v>700000</v>
       </c>
       <c r="L43" s="3">
         <v>700000</v>
@@ -4209,7 +4609,7 @@
         <v>57</v>
       </c>
       <c r="K44" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="L44" s="3">
         <v>800000</v>
@@ -4245,7 +4645,7 @@
         <v>57</v>
       </c>
       <c r="K45" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="L45" s="3">
         <v>800000</v>
@@ -4281,7 +4681,7 @@
         <v>58</v>
       </c>
       <c r="K46" s="3">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="L46" s="3">
         <v>800000</v>
@@ -4308,61 +4708,261 @@
         <v>57</v>
       </c>
       <c r="H47" s="3">
-        <v>200000</v>
+        <v>800000</v>
       </c>
       <c r="I47" s="3">
-        <v>400000</v>
+        <v>700000</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K47" s="3">
+        <v>800000</v>
+      </c>
+      <c r="L47" s="3">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E48" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" s="3">
         <v>600000</v>
       </c>
-      <c r="L47" s="3">
-        <v>810000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="5"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="5"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="5"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="5"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="5"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="5"/>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="I48" s="3">
+        <v>500000</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K48" s="3">
+        <v>600000</v>
+      </c>
+      <c r="L48" s="3">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="3"/>
+      <c r="B49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>500000000</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="3">
+        <v>700000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>600000</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K49" s="3">
+        <v>700000</v>
+      </c>
+      <c r="L49" s="3">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="3"/>
+      <c r="B50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="3">
+        <v>500000000</v>
+      </c>
+      <c r="E50" s="3">
+        <v>9999999999</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="3">
+        <v>800000</v>
+      </c>
+      <c r="I50" s="3">
+        <v>700000</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K50" s="3">
+        <v>800000</v>
+      </c>
+      <c r="L50" s="3">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="3"/>
+      <c r="B51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="3">
+        <v>800000</v>
+      </c>
+      <c r="I51" s="3">
+        <v>700000</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="3">
+        <v>800000</v>
+      </c>
+      <c r="L51" s="3">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="3"/>
+      <c r="B52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>500000000</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H52" s="3">
+        <v>800000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>700000</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K52" s="3">
+        <v>800000</v>
+      </c>
+      <c r="L52" s="3">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="3"/>
+      <c r="B53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="3">
+        <v>500000000</v>
+      </c>
+      <c r="E53" s="3">
+        <v>9999999999</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H53" s="3">
+        <v>800000</v>
+      </c>
+      <c r="I53" s="3">
+        <v>700000</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53" s="3">
+        <v>800000</v>
+      </c>
+      <c r="L53" s="3">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="5"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:12">
       <c r="A55" s="5"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:12">
       <c r="A56" s="5"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:12">
       <c r="A57" s="5"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:12">
       <c r="A58" s="5"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:12">
       <c r="A59" s="5"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:12">
       <c r="A60" s="5"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:12">
       <c r="A61" s="5"/>
     </row>
   </sheetData>
@@ -4371,11 +4971,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
